--- a/paper/paper 1/expressivityComplexity.xlsx
+++ b/paper/paper 1/expressivityComplexity.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10110" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10110"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,6 @@
           </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
-            <c:extLst/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -311,7 +310,6 @@
           </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
-            <c:extLst/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -451,7 +449,6 @@
           </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
-            <c:extLst/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -591,7 +588,6 @@
           </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
-            <c:extLst/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -683,16 +679,16 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>40</c:v>
@@ -712,11 +708,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="306337088"/>
-        <c:axId val="306336696"/>
+        <c:axId val="191397128"/>
+        <c:axId val="191397520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="306337088"/>
+        <c:axId val="191397128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -806,7 +802,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306336696"/>
+        <c:crossAx val="191397520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -814,7 +810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="306336696"/>
+        <c:axId val="191397520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,7 +870,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="306337088"/>
+        <c:crossAx val="191397128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1808,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2027,7 +2023,7 @@
       <c r="B21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2037,7 +2033,7 @@
       <c r="B22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2047,7 +2043,7 @@
       <c r="B23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2057,7 +2053,7 @@
       <c r="B24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2097,7 +2093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>

--- a/paper/paper 1/expressivityComplexity.xlsx
+++ b/paper/paper 1/expressivityComplexity.xlsx
@@ -233,10 +233,10 @@
                   <c:v>OWL2-DL</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>OWL2-QL</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>OWL2-QL</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>ReSh</c:v>
@@ -371,10 +371,10 @@
                   <c:v>OWL2-DL</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>OWL2-QL</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>OWL2-QL</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>ReSh</c:v>
@@ -510,10 +510,10 @@
                   <c:v>OWL2-DL</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>OWL2-QL</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>OWL2-QL</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>ReSh</c:v>
@@ -649,10 +649,10 @@
                   <c:v>OWL2-DL</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>OWL2-QL</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>OWL2-QL</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>ReSh</c:v>
@@ -676,10 +676,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>8</c:v>
@@ -708,11 +708,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="191397128"/>
-        <c:axId val="191397520"/>
+        <c:axId val="270917488"/>
+        <c:axId val="270917880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="191397128"/>
+        <c:axId val="270917488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +741,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -802,7 +801,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191397520"/>
+        <c:crossAx val="270917880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -810,7 +809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191397520"/>
+        <c:axId val="270917880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -839,7 +838,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -870,7 +868,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191397128"/>
+        <c:crossAx val="270917488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -884,7 +882,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1804,8 +1801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2008,22 +2005,22 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
